--- a/hasil uji/nilaiLOUDNESS.xlsx
+++ b/hasil uji/nilaiLOUDNESS.xlsx
@@ -466,59 +466,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0
- 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0
- 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0
- 0 1 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
- 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1
- 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1
- 0 1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 1 0 1 1 1
- 1 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1
- 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1
- 0 1 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0
- 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1
- 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 1
- 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 1 1 1 0
- 0 0 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0
- 0 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 1 1
- 0 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 1 1 0 1
- 0 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0
- 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 0
- 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 0 1
- 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 0
- 0 0 1 1 0 1 1 1 1 1 0 1 0]</t>
+          <t>[1 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 0 1 0 1 0
+ 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0
+ 1 1 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 1
+ 1 0 1 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 0 1 1 0 1
+ 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 0 1
+ 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1
+ 1 0 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0 1 0 0
+ 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1
+ 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1 1
+ 0 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 1 0
+ 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1
+ 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 0 1 1
+ 1 0 0 1 1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1
+ 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 0 1
+ 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1
+ 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0
+ 0 0 0 1 0 0 1 1 1 1 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1
+ 0 1 1 1 1 1 1 0 0 1 1 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 1 1 0 1
+ 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1
+ 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1
+ 1 1 1 0 1 0 0 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  1   9  12  13  15  19  21  23  24  27  29  31  32  34  37  44  45  46
-  49  50  51  52  59  60  61  62  63  64  65  72  74  75  77  89  91  93
-  94  95  96  97 102 103 109 112 113 114 115 116 117 119 120 126 128 130
- 132 140 144 146 153 155 158 160 161 162 163 164 166 169 171 177 178 180
- 181 184 186 187 188 192 193 194 199 200 206 207 211 212 213 216 218 219
- 221 223 225 226 227 229 230 231 234 236 237 238 239 241 242 244 246 248
- 250 251 254 256 257 258 259 260 261 266 267 268 269 270 273 276 277 278
- 280 282 283 284 285 294 295 297 299 300 303 306 311 312 314 315 320 321
- 322 323 325 326 328 330 332 334 335 336 339 340 342 344 346 347 357 358
- 361 362 363 364 366 367 370 373 376 379 382 383 384 385 391 393 395 396
- 397 400 401 402 403 404 405 406 407 410 413 414 415 419 421 422 423 424
- 426 428 429 431 432 435 437 441 443 445 446 449 450 453 454 456 458 459
- 460 461 463 464 465 466 470 471 473 476 477 478 479 484 485 486 487 489
- 490 491 492 494 496 499 500 501 502 503 504 508 511 512 513 515 519 522
- 523 524 525 527 528 529 535 536 541 542 544 545 548 551 552 553 554 556
- 557 560 563 564 565 568 569 570 571 572 574 576 578 579 582 587 588 589
- 591 593 595 597 598 599 602 604 605 606 607 608 610 611 612 615 616 617
- 618 619 620 623 624 625 627 629 630 634 635 636 638 643 647 648 649 650
- 652 653 655 658 659 660 661 664 667 669 680 686 687 688 689 693 695 697
- 698 699 700 702 703 707 708 709 711 712 713 716 717 725 726 728 733 734
- 737 738 742 743 745 746 747 748 749 751]</t>
+          <t>[  0   2   3   4   5   7   8  11  12  14  16  17  18  19  20  23  26  27
+  28  29  30  33  35  38  39  40  41  43  44  45  47  50  54  55  56  58
+  59  60  62  63  65  66  68  69  70  74  75  78  82  83  84  85  88  89
+  92  94  95  96  98 102 103 104 105 107 110 111 113 115 116 118 119 120
+ 121 122 123 128 129 130 131 132 133 134 135 136 138 140 144 145 147 148
+ 149 150 152 153 154 157 158 159 160 161 162 164 165 166 168 170 171 174
+ 175 177 178 179 180 181 184 185 186 187 188 190 191 193 194 195 196 197
+ 198 200 201 202 203 204 205 207 209 210 212 215 219 220 221 222 226 227
+ 228 229 233 235 236 237 242 244 247 248 251 252 253 254 256 261 263 264
+ 266 269 272 273 274 275 277 279 280 282 283 284 285 286 287 288 289 290
+ 291 292 294 295 297 298 300 302 303 304 305 307 309 310 311 312 313 314
+ 315 317 319 320 321 322 323 324 326 329 330 331 332 336 337 341 343 344
+ 345 346 347 348 349 351 356 357 359 360 363 364 368 372 373 375 377 378
+ 380 383 385 386 387 388 389 390 392 393 394 395 396 397 398 400 401 403
+ 405 406 408 409 410 411 413 414 415 418 419 420 421 422 424 426 427 428
+ 432 433 434 436 437 439 442 443 444 447 448 449 450 452 453 458 459 460
+ 461 462 463 466 468 469 471 472 473 474 475 477 478 479 480 481 482 483
+ 484 485 488 490 493 495 497 499 500 502 503 505 508 509 510 511 512 513
+ 514 515 517 519 521 522 526 528 530 531 534 535 536 537 538 539 540 541
+ 545 547 548 549 550 552 553 554 555 556 557 558 559 561 562 564 565 567
+ 569 572 573 576 578 580 581 582 583 585 586 587 588 590 595 598 599 600
+ 601 603 605 607 608 611 614 615 616 617 618 620 621 622 623 624 626 628
+ 630 631 632 633 634 635 638 639 641 643 644 646 647 649 651 652 654 656
+ 657 660 662 663 665 669 671 672 675 678 681 684 685 686 687 688 689 690
+ 692 693 695 696 697 698 699 700 701 702 705 706 707 709 710 711 714 715
+ 716 717 718 720 721 723 725 726 728 729 731 733 738 739 740 741 742 744
+ 747 748 749 750 751]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>17.89176774024963</v>
+        <v>42.77836275100708</v>
       </c>
     </row>
     <row r="3">
@@ -527,59 +533,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 1
- 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0
- 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 0 0
- 0 1 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0
- 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 1 1 0 0 1
- 0 1 0 1 0 0 0 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1
- 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0
- 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1
- 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0
- 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 0 1
- 1 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0 1
- 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0
- 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1
- 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1
- 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1
- 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 1 1
- 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 1 0 1 0 1 1
- 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1
- 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 1
- 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0
- 0 0 0 1 0 1 0 0 0 0 1 1 1]</t>
+          <t>[1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0
+ 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1
+ 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0
+ 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 1 0
+ 0 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1
+ 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 1 1 0
+ 0 0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1
+ 1 0 0 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0
+ 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 1 1 1 0
+ 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0
+ 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1
+ 0 0 1 1 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1
+ 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1
+ 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ 1 0 1 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0
+ 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 0 1
+ 0 1 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0
+ 0 0 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 0
+ 1 0 0 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1
+ 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0
+ 1 0 0 1 0 0 1 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   3   6   9  13  14  15  16  17  19  20  23  26  27  31  33  35  36
-  38  42  45  46  48  50  52  53  54  56  57  58  59  60  61  62  66  67
-  70  71  76  77  82  83  84  87  88  93  94  95  96  97  99 100 102 104
- 106 112 116 117 118 122 123 125 128 130 132 137 138 139 141 142 145 151
- 155 156 158 160 161 163 165 167 168 169 170 175 178 179 180 181 184 186
- 188 192 193 194 196 197 198 199 200 205 209 215 217 218 220 221 223 226
- 227 228 229 230 239 241 242 244 245 250 251 257 260 261 265 266 267 268
- 269 270 271 276 277 278 280 283 286 287 288 291 293 294 295 298 299 300
- 301 303 305 306 308 310 311 312 313 314 317 322 323 324 325 326 327 328
- 330 331 338 339 341 342 344 347 350 355 356 357 358 359 361 362 367 369
- 370 373 374 378 379 380 384 385 386 388 390 391 393 394 395 396 398 399
- 403 406 408 410 413 414 415 416 417 418 421 422 424 425 426 427 428 431
- 432 436 437 439 441 442 444 447 448 451 453 457 458 459 460 461 463 464
- 465 467 468 471 475 476 477 478 480 481 482 484 486 488 490 493 494 497
- 500 503 504 505 507 509 510 511 512 513 514 515 517 519 526 527 528 529
- 533 536 537 538 540 541 544 545 547 548 551 553 554 555 557 560 561 562
- 563 564 568 569 570 574 576 577 581 583 584 587 590 591 594 598 601 602
- 606 608 610 612 616 617 621 622 623 625 627 628 635 636 639 644 646 649
- 650 651 653 658 659 662 664 665 667 668 670 673 675 676 680 681 683 688
- 689 690 693 695 697 698 702 710 711 712 714 715 717 719 720 723 727 729
- 730 731 732 733 735 736 738 743 745 750 751 752]</t>
+          <t>[  0   1   5   6  15  16  19  23  25  26  28  30  31  32  38  40  41  42
+  43  47  51  54  56  57  58  60  62  65  66  73  74  77  78  79  80  81
+  82  83  84  86  89  92  93  96  97  99 100 101 104 108 117 119 120 121
+ 122 125 129 130 131 132 134 135 136 137 140 142 144 145 146 149 150 151
+ 152 153 154 157 161 162 163 164 168 169 170 171 173 175 176 178 179 180
+ 182 184 185 187 188 189 191 194 195 196 199 202 204 205 210 212 214 215
+ 218 219 220 224 225 226 228 230 231 233 236 239 241 242 243 247 248 252
+ 258 259 262 263 264 265 269 272 273 275 277 278 279 280 281 282 283 286
+ 288 289 290 293 302 312 314 316 319 322 323 325 326 327 329 330 331 337
+ 338 341 342 343 345 346 349 350 351 352 355 356 357 358 360 361 362 364
+ 366 377 378 380 381 382 383 384 385 386 387 394 398 399 401 403 404 406
+ 409 410 411 412 413 414 415 416 417 418 420 424 426 429 430 431 432 433
+ 435 437 438 442 443 444 446 448 453 454 457 458 459 460 461 462 465 469
+ 470 471 473 476 480 481 483 487 488 489 493 496 498 499 502 503 514 517
+ 518 520 521 522 523 524 525 528 530 533 535 537 538 539 543 548 549 550
+ 551 553 555 560 562 563 566 567 569 571 574 575 576 579 580 581 583 584
+ 585 586 587 588 591 593 594 595 598 599 601 603 604 606 608 609 610 611
+ 612 614 616 621 622 623 624 625 631 632 633 636 637 638 642 646 647 649
+ 650 651 652 653 655 656 658 660 662 663 664 666 669 675 676 677 678 679
+ 680 681 683 684 686 688 690 692 695 696 698 700 701 702 704 707 708 711
+ 713 714 716 718 720 721 722 723 725 728 732 737 740 743 746 747 749]</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>17.90429973602295</v>
+        <v>42.01169896125793</v>
       </c>
     </row>
     <row r="4">
@@ -588,62 +594,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 0 1
- 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1
- 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1
- 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 0 0 1 1 0 0
- 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1 1
- 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 1 0 1 0
- 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1
- 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1
- 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1
- 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 0
- 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1
- 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0
- 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 0 1 1
- 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 0 0 1 1 0
- 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 0
- 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 1
- 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1
- 1 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0
- 0 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 0
- 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0
- 1 1 1 1 1 0 0 1 0 0 1 0 1]</t>
+          <t>[1 1 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 1
+ 0 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 1
+ 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1
+ 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1
+ 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0
+ 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1
+ 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0
+ 0 0 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0
+ 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0
+ 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0
+ 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0 0
+ 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1
+ 0 1 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0
+ 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 0
+ 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1
+ 0 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 1 1 0 1 0
+ 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1
+ 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1
+ 1 0 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1
+ 0 1 1 0 1 1 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0
+ 0 0 1 1 1 1 1 1 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   4   6   9  10  11  12  13  17  18  21  22  24  25  27  28  29  30
-  31  32  36  37  38  42  46  49  52  53  57  59  60  65  67  68  69  70
-  72  73  77  78  79  82  83  86  89  90  93  94  96  97  98 100 101 102
- 103 105 106 107 108 110 111 113 114 115 116 117 118 120 122 123 124 127
- 128 130 131 132 134 135 136 138 139 144 145 149 151 152 154 156 157 158
- 159 162 164 165 166 167 168 169 170 173 176 177 178 180 182 183 184 185
- 187 192 193 194 195 196 202 203 206 207 208 210 212 213 214 215 217 218
- 220 222 223 227 228 230 231 233 234 235 236 237 239 240 242 243 246 247
- 248 249 251 252 255 256 258 259 261 262 264 265 266 270 271 272 273 275
- 278 279 280 284 285 288 289 292 293 294 295 296 298 299 300 303 304 305
- 307 308 309 310 311 313 315 316 317 322 325 327 329 330 332 333 334 337
- 339 340 343 344 347 348 349 353 356 357 358 359 361 362 363 364 370 371
- 373 374 375 376 377 381 387 388 391 396 397 401 404 406 409 411 414 416
- 417 418 419 421 422 424 427 428 440 441 442 444 445 448 449 450 451 453
- 454 455 456 457 459 460 461 462 463 466 468 470 472 474 475 476 477 479
- 480 483 484 485 486 488 489 490 495 501 502 504 505 508 509 510 512 515
- 516 519 520 521 522 523 524 525 526 528 530 531 533 536 537 538 540 544
- 545 546 547 548 550 551 553 555 556 557 558 560 562 563 564 565 570 571
- 573 574 579 583 585 586 587 588 589 590 591 594 595 598 599 600 604 605
- 607 609 610 611 613 615 616 618 620 621 622 624 626 627 628 629 630 632
- 633 634 638 639 641 644 645 649 650 652 654 655 658 663 667 668 669 670
- 672 673 674 677 679 680 681 682 684 685 686 687 689 690 692 694 696 697
- 698 699 700 704 706 707 708 710 711 712 713 714 716 717 718 719 720 721
- 722 723 726 730 734 735 736 737 738 740 741 742 743 744 747 750 752]</t>
+          <t>[  0   1   2   3   4  11  12  15  17  19  21  22  23  25  26  27  30  31
+  33  34  36  39  40  41  42  43  44  45  46  47  52  54  56  60  64  65
+  67  69  72  73  74  79  83  88  89  90  94  95  96  99 100 101 103 105
+ 106 107 108 110 113 116 120 123 124 128 129 130 132 134 137 139 141 142
+ 146 147 149 151 153 155 156 157 158 160 161 162 167 168 170 174 175 178
+ 179 180 182 187 191 192 197 199 203 204 206 207 208 213 214 215 219 221
+ 223 227 230 231 234 235 236 238 240 241 242 243 248 249 252 257 261 263
+ 264 265 266 267 268 270 281 284 285 286 288 289 290 293 294 296 298 299
+ 300 302 303 306 307 308 310 312 313 314 317 318 321 322 326 328 331 333
+ 335 336 341 345 348 351 352 357 358 361 362 368 374 376 379 382 383 384
+ 385 387 388 390 391 393 395 396 398 399 400 402 410 414 415 416 418 420
+ 422 424 425 426 428 430 432 433 434 438 439 440 441 442 443 445 447 448
+ 449 450 451 455 458 459 461 464 465 467 474 475 476 479 481 482 483 486
+ 487 488 489 492 494 498 499 500 502 504 505 507 509 511 513 515 521 525
+ 526 527 528 529 533 535 536 548 550 552 553 554 557 558 560 561 562 564
+ 566 567 568 570 572 575 576 577 579 582 584 586 587 588 590 594 596 598
+ 602 603 604 605 608 612 614 616 617 621 624 627 628 629 631 633 634 636
+ 647 649 653 654 656 657 662 665 666 668 671 672 673 674 676 677 678 683
+ 684 686 691 693 698 700 701 702 704 705 707 708 709 710 714 715 716 717
+ 719 721 723 724 725 727 728 730 731 734 735 737 742 743 744 745 746 747
+ 748]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E4" t="n">
-        <v>20.96662449836731</v>
+        <v>43.2248260974884</v>
       </c>
     </row>
     <row r="5">
@@ -652,59 +655,63 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0
- 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1
- 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 0 0
- 1 0 1 1 1 1 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 0 0 0
- 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1
- 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 0
- 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 0
- 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 1 0 1 0 0
- 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 1
- 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 1 0 1 1 0 0
- 1 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1
- 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1
- 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0
- 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1
- 1 1 0 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 0
- 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1
- 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0
- 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1
- 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1
- 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0
- 0 1 1 0 1 0 1 0 1 1 0 0 1]</t>
+          <t>[1 1 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1
+ 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1
+ 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 1
+ 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0
+ 0 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1 1 1 0 1 0
+ 0 1 1 0 1 1 1 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 0 0 1
+ 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0
+ 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 0
+ 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0
+ 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0
+ 0 1 1 1 1 1 0 1 0 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0
+ 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 1
+ 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 0
+ 1 1 0 0 1 1 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 0 1
+ 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0
+ 1 1 0 1 0 0 1 1 0 1 1 1 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1
+ 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0
+ 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0
+ 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1
+ 0 0 1 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1
+ 1 1 1 0 1 0 1 1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   1   2   4   5   8  21  22  26  27  29  32  41  43  46  48  52  59
-  61  62  64  66  68  73  74  75  76  78  79  84  85  87  92  93  94  96
-  97  98  99 100 102 105 107 108 111 113 114 115 116 118 120 121 124 127
- 129 130 131 132 133 134 135 140 141 142 144 150 152 155 156 157 160 162
- 164 166 170 175 177 179 184 186 187 189 191 192 195 196 197 198 199 200
- 205 206 208 210 211 214 217 218 223 224 226 229 231 232 236 238 241 245
- 246 247 249 250 251 253 254 260 262 264 265 266 268 270 271 274 275 276
- 279 281 283 284 285 286 287 291 293 297 301 303 304 308 313 314 316 320
- 322 323 324 325 329 330 332 333 334 336 339 340 341 343 345 347 348 350
- 354 356 357 360 361 363 364 366 367 370 373 375 377 380 381 382 383 384
- 385 388 389 390 391 394 395 396 397 398 399 404 406 407 409 415 416 417
- 421 424 425 427 428 430 431 434 435 437 441 442 443 447 451 454 455 457
- 458 460 462 466 468 469 470 473 474 476 477 478 479 481 482 486 487 489
- 490 493 497 501 505 506 507 509 511 517 518 519 521 523 524 527 528 530
- 532 534 535 536 538 539 543 544 545 546 547 549 552 553 556 558 559 560
- 562 566 570 571 572 575 580 582 584 588 590 591 592 594 597 600 601 602
- 605 607 609 610 611 613 615 616 617 618 619 620 622 624 625 626 627 633
- 635 636 638 639 640 641 642 643 649 651 653 658 661 662 664 665 670 671
- 673 674 676 678 681 684 685 686 688 689 692 693 697 698 699 700 702 703
- 704 709 710 716 722 723 725 726 728 729 730 731 733 734 735 736 738 741
- 742 744 746 748 749 752]</t>
+          <t>[  0   1   3   8   9  10  12  14  16  17  19  20  21  22  23  25  28  29
+  30  31  32  36  37  39  41  43  46  49  50  51  52  53  55  56  60  62
+  73  77  78  79  81  83  86  89  92  93  95  97  98  99 100 101 103 104
+ 107 109 110 112 113 115 116 117 118 119 120 121 122 124 126 128 129 131
+ 132 138 141 142 146 150 151 152 153 154 155 156 157 158 160 161 163 164
+ 165 166 167 168 169 170 174 175 176 178 179 180 181 183 186 187 189 190
+ 191 193 194 195 197 199 200 202 204 205 206 208 209 210 211 212 214 217
+ 221 222 224 226 228 232 235 236 237 243 245 248 254 256 261 262 263 264
+ 266 267 268 269 270 271 272 277 278 279 280 281 282 283 285 286 289 292
+ 293 294 297 298 299 300 301 302 303 304 305 308 310 312 313 314 316 317
+ 318 319 320 321 323 324 325 326 327 328 329 331 333 334 335 336 338 339
+ 340 341 344 345 346 347 348 351 352 353 354 356 357 359 360 363 364 366
+ 368 371 372 373 374 375 377 380 381 382 383 386 387 388 389 390 391 392
+ 393 400 402 405 408 411 413 415 416 417 418 422 423 425 427 428 429 430
+ 431 432 433 436 437 439 440 441 443 444 446 447 449 450 451 452 454 456
+ 457 458 460 461 462 463 465 467 470 471 473 474 475 476 477 479 481 482
+ 485 486 487 489 490 491 494 496 497 499 501 504 505 506 507 509 512 515
+ 517 518 521 522 529 530 531 534 538 539 540 542 544 546 548 549 551 552
+ 555 556 558 561 562 564 565 566 569 570 571 573 574 576 577 578 579 581
+ 583 584 585 586 587 588 589 590 591 592 593 595 596 597 598 599 600 601
+ 602 603 604 605 610 611 613 617 618 619 620 621 623 624 626 627 632 633
+ 637 640 642 643 648 649 650 651 652 653 654 657 658 659 660 661 666 667
+ 669 671 673 675 677 678 680 682 685 688 690 691 692 693 694 697 698 699
+ 700 701 702 705 706 709 711 712 713 714 715 717 718 719 720 722 723 726
+ 727 728 729 731 732 733 735 736 738 739 740 741 742 744 746 747]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E5" t="n">
-        <v>17.35847592353821</v>
+        <v>41.24826645851135</v>
       </c>
     </row>
     <row r="6">
@@ -713,60 +720,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0
- 1 0 0 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0
- 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- 1 0 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0
- 0 1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0
- 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0
- 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0 1 1
- 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 0 0 1
- 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0
- 0 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 0 1 0
- 0 1 1 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1
- 0 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0
- 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0
- 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1
- 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0
- 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1
- 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0
- 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1
- 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1
- 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1
- 1 0 0 1 1 0 1 1 0 1 1 1 1]</t>
+          <t>[1 1 0 0 1 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 0 0
+ 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1
+ 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 1 0 1 0
+ 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0
+ 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0
+ 0 0 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0
+ 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1
+ 1 0 1 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1
+ 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1
+ 0 1 1 0 1 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 0 1 0 0 1
+ 0 0 1 1 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0
+ 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 1
+ 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0
+ 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0
+ 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 1
+ 0 0 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0
+ 1 1 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 0
+ 0 1 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 0 0
+ 1 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1
+ 0 1 0 0 0 1 1 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   1   2   4   6   7   8  11  18  20  21  23  26  30  31  34  35  37
-  43  44  45  46  48  49  50  51  52  54  55  56  57  59  60  62  67  68
-  69  76  77  80  81  85  86  87  88  89  90  94  95  98 102 111 113 115
- 119 120 123 124 125 127 128 129 130 131 132 134 135 136 140 143 144 149
- 151 152 153 155 156 157 160 162 163 164 165 166 170 171 176 183 188 189
- 190 191 192 193 195 196 199 203 204 205 207 209 212 213 217 218 222 224
- 225 226 228 230 232 234 235 236 237 240 241 242 243 244 245 246 247 248
- 252 257 258 262 263 273 274 275 277 278 280 281 285 286 287 288 289 290
- 292 295 297 299 301 307 311 313 317 323 324 326 327 328 331 335 337 339
- 340 341 342 344 345 346 348 349 350 354 355 356 357 360 363 364 365 366
- 368 371 372 373 374 375 379 380 381 385 386 387 389 391 392 393 394 395
- 397 399 401 403 404 405 406 408 412 413 415 417 419 421 423 424 425 426
- 427 429 430 431 432 437 438 445 446 447 449 450 455 456 458 459 461 462
- 463 465 468 469 471 472 473 474 479 482 485 488 490 491 493 496 497 498
- 499 500 510 512 514 517 518 519 520 521 522 525 527 528 529 530 532 533
- 534 536 537 540 541 543 544 545 546 547 548 549 550 551 552 555 556 559
- 561 563 565 566 568 569 572 573 576 578 579 580 583 588 590 591 592 593
- 597 603 604 605 607 608 609 610 612 614 616 617 618 619 620 621 623 625
- 630 631 635 638 639 640 642 645 646 648 650 653 655 656 657 658 659 660
- 661 662 663 665 670 671 673 676 678 679 681 682 684 686 691 695 696 698
- 699 700 702 703 705 709 710 711 712 715 717 719 726 727 731 732 733 736
- 737 738 739 740 743 744 746 747 749 750 751 752]</t>
+          <t>[  0   1   4   7  10  12  13  14  15  16  17  19  20  22  23  25  27  29
+  31  33  38  40  42  45  46  47  48  56  58  59  60  63  64  65  66  68
+  69  70  73  74  76  78  82  83  87  88  96  97  98  99 102 105 107 109
+ 112 117 121 122 124 125 128 130 131 134 135 138 139 140 141 142 143 146
+ 148 149 150 152 154 155 156 157 159 160 166 170 171 173 174 176 182 187
+ 189 190 192 194 195 196 197 198 199 200 201 210 213 215 216 218 220 223
+ 226 227 230 231 232 234 236 237 238 239 240 241 242 247 248 250 252 253
+ 255 258 259 261 262 263 265 269 271 273 274 276 282 283 286 287 288 291
+ 293 295 300 303 304 305 310 312 314 317 320 321 322 323 327 330 331 332
+ 334 335 337 338 339 340 341 342 343 346 349 353 355 356 357 358 360 364
+ 366 369 372 373 374 375 376 377 381 382 384 385 387 388 389 392 393 394
+ 395 396 397 398 399 400 401 402 403 404 407 412 413 415 417 420 421 422
+ 424 426 428 430 431 432 434 436 437 438 439 440 443 444 445 447 451 452
+ 453 454 457 458 460 461 462 465 466 468 470 472 476 479 484 488 490 491
+ 496 498 501 503 505 506 507 509 511 512 514 515 518 519 520 524 529 531
+ 532 533 537 539 540 542 545 547 548 550 553 554 558 559 560 561 562 563
+ 564 565 566 569 571 572 574 576 577 578 579 581 582 583 584 585 586 588
+ 589 590 592 593 594 597 598 602 605 606 607 610 613 614 617 621 622 623
+ 624 626 627 630 634 636 637 638 640 641 642 643 645 647 648 649 651 653
+ 655 656 658 659 660 663 666 668 671 672 674 675 678 679 681 684 688 690
+ 693 700 701 702 703 704 705 706 707 708 710 711 712 713 715 716 718 721
+ 726 728 730 735 736 737 739 741 745 746 748 749 751]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>19.03032422065735</v>
+        <v>37.76767802238464</v>
       </c>
     </row>
     <row r="7">
@@ -775,64 +782,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 0 0
- 0 1 1 1 1 0 1 1 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0
- 0 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1
- 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0
- 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1
- 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1
- 1 1 0 1 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0
- 1 1 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1
- 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 1 1 0
- 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 0
- 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0
- 0 1 1 1 0 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 0
- 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 0
- 0 1 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1 1 1 0 1 1 1 0
- 1 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0
- 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0
- 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1
- 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0
- 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0
- 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1
- 0 0 0 0 1 1 0 0 1 1 0 1 1]</t>
+          <t>[1 0 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1
+ 0 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 0 0 1
+ 1 0 1 0 1 0 0 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1
+ 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0
+ 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1
+ 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0
+ 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0
+ 1 1 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1
+ 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1
+ 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0
+ 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0
+ 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0
+ 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1
+ 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0
+ 1 0 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1
+ 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0
+ 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0
+ 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 1
+ 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1
+ 0 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1
+ 1 0 1 0 1 0 1 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  0   1   3   5   6   7   8   9  13  15  16  18  19  21  22  24  25  26
-  27  28  29  30  38  39  40  41  43  44  45  46  48  54  55  56  57  59
-  62  63  66  68  69  70  75  77  80  82  83  84  85  86  87  89  91  92
-  93  95  97  98  99 101 102 103 105 106 107 108 109 110 111 116 118 119
- 120 121 123 124 126 127 129 130 131 133 134 135 136 138 139 140 141 142
- 143 144 146 148 149 150 151 152 153 154 155 158 160 162 163 165 166 168
- 172 173 175 176 177 178 179 180 181 182 183 184 186 189 191 192 195 196
- 197 199 200 201 202 205 207 208 209 211 212 216 217 218 219 221 222 223
- 225 226 227 229 230 231 232 236 237 238 242 243 249 251 253 255 259 260
- 261 262 263 264 265 266 267 271 272 278 279 282 283 285 286 288 290 292
- 295 297 304 305 306 307 309 312 313 314 316 319 324 326 328 329 330 331
- 333 335 336 339 341 344 347 348 349 351 352 355 357 358 359 361 362 363
- 364 366 367 368 372 373 375 378 380 381 383 384 388 390 391 392 394 395
- 399 401 402 403 404 405 408 409 410 412 415 416 417 418 420 421 422 424
- 425 427 428 431 433 434 435 436 438 439 441 442 444 445 446 447 449 451
- 454 456 461 465 466 468 470 473 474 475 477 482 484 485 486 489 490 491
- 493 495 496 498 499 500 501 503 504 505 509 510 511 512 514 515 516 518
- 519 520 521 524 525 526 528 532 533 534 535 536 538 539 541 542 543 545
- 548 551 552 555 556 557 559 560 561 564 565 566 567 568 570 571 572 573
- 574 575 576 577 580 581 582 583 585 588 590 592 596 597 598 599 600 603
- 604 605 608 610 612 613 614 615 616 617 619 620 621 623 627 628 633 638
- 640 642 643 645 646 648 649 650 652 654 655 656 659 660 661 663 666 667
- 669 670 671 672 673 675 676 677 678 679 680 681 682 684 685 686 688 689
- 690 691 692 693 694 695 697 701 703 705 707 710 711 712 713 714 715 716
- 717 718 719 720 721 723 726 727 728 729 730 732 733 736 737 739 744 745
- 748 749 751 752]</t>
+          <t>[  0   2   3   4   7   8  11  12  14  15  17  18  20  22  26  27  29  31
+  36  38  40  44  45  46  47  48  49  51  52  53  57  59  60  61  62  64
+  65  66  67  69  73  74  76  78  81  82  84  85  86  87  90  91  93  95
+  97  98 101 105 106 107 110 113 115 116 117 120 124 126 129 130 134 137
+ 138 139 142 143 144 146 149 152 154 157 161 162 163 168 169 173 175 176
+ 178 181 182 183 184 187 189 191 192 197 200 207 210 211 212 213 215 216
+ 223 226 227 231 232 237 242 243 246 249 253 254 255 257 259 260 261 263
+ 264 266 269 270 274 277 278 279 280 282 283 285 286 287 290 292 293 294
+ 295 296 297 300 301 303 305 306 314 315 317 318 321 323 324 326 327 328
+ 331 332 334 335 336 338 340 341 344 345 348 350 352 354 356 359 360 362
+ 364 367 368 370 371 375 376 377 379 382 390 391 393 396 397 399 400 402
+ 407 409 412 414 416 419 422 424 425 429 433 435 436 437 439 440 445 447
+ 452 453 456 459 461 464 467 473 480 481 485 487 490 492 493 494 495 496
+ 501 502 503 504 505 508 511 512 515 518 520 525 527 528 530 531 532 533
+ 534 535 536 537 538 543 544 545 547 548 553 554 556 561 563 565 566 568
+ 570 571 573 575 576 578 579 580 585 587 589 593 595 597 602 607 608 609
+ 610 613 614 616 619 622 625 626 627 631 633 638 639 640 641 642 643 644
+ 645 646 647 648 649 651 652 653 656 657 658 660 661 662 663 664 665 667
+ 669 670 671 672 673 680 682 686 687 689 693 694 695 696 697 699 700 702
+ 704 706 708 711 715 716 717 721 722 723 725 726 727 729 733 736 739 740
+ 742 744 746 749 750]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>23.00094509124756</v>
+        <v>18.6193516254425</v>
       </c>
     </row>
     <row r="8">
@@ -841,59 +843,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0
- 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0
- 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0
- 1 1 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1
- 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 1 1
- 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1
- 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1
- 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 1 1 1 0 0
- 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 0 1 0 1 0 0 0 0
- 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1
- 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 1 1 1 0 0 0 0 1 1 1 0 0 1
- 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1
- 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0
- 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 1
- 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0
- 1 1 0 1 0 0 0 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0
- 0 0 1 0 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1
- 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 1
- 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1
- 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1
- 0 0 1 0 1 1 0 1 1 1 1 1 0]</t>
+          <t>[1 0 0 1 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0
+ 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0 1 0
+ 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1
+ 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0
+ 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1 1 0 1
+ 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0
+ 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 1 1
+ 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 1 1
+ 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 1 1
+ 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0
+ 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0
+ 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 1
+ 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1
+ 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 1 1 1 1
+ 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1
+ 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1
+ 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 1
+ 0 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 1
+ 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 1 0 0
+ 1 0 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 0
+ 1 1 0 0 0 0 0 1 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  0   1   2   5   6   7   9  15  16  18  19  21  22  28  29  32  33  34
-  37  38  39  45  46  48  51  52  53  55  57  58  60  61  62  65  66  68
-  74  76  77  79  80  83  85  86  89  93  94  95  96  97  99 100 101 102
- 106 111 112 113 116 119 122 123 125 130 131 132 135 139 141 142 147 150
- 154 157 158 160 167 168 170 171 173 174 176 179 180 182 183 184 185 192
- 194 195 196 197 198 199 200 201 202 206 208 209 210 212 214 218 219 221
- 222 224 228 229 235 236 237 238 239 240 241 242 245 249 250 251 254 256
- 258 261 268 269 274 278 279 281 284 287 288 289 291 292 293 296 297 299
- 301 303 305 307 308 313 315 317 318 320 321 323 324 326 328 337 338 339
- 343 345 349 350 351 355 356 359 360 363 364 366 367 368 369 372 380 381
- 382 384 388 389 390 392 393 394 395 396 401 402 403 406 407 410 411 416
- 420 423 424 426 427 428 432 433 437 438 440 441 442 443 445 446 448 449
- 451 452 453 454 455 456 459 462 464 466 467 468 471 473 474 476 478 479
- 482 483 485 487 489 491 493 494 498 500 501 502 504 505 507 508 509 510
- 515 516 517 519 520 525 526 531 532 534 537 541 542 543 546 547 550 551
- 552 553 555 556 558 562 563 564 565 566 568 570 571 573 575 576 579 580
- 581 583 584 585 587 589 594 596 599 601 602 605 606 609 611 612 614 616
- 618 620 624 625 628 629 630 633 639 640 642 647 649 650 651 652 656 660
- 662 665 666 671 672 674 675 677 679 680 681 684 686 687 691 692 693 694
- 695 698 699 700 701 702 703 706 707 710 711 712 713 715 716 717 718 720
- 728 730 735 739 742 744 745 747 748 749 750 751]</t>
+          <t>[  0   3   4   5   7   8   9  14  16  18  20  22  23  25  29  30  32  35
+  38  41  42  43  46  47  48  50  54  56  57  58  59  61  62  64  65  66
+  68  72  76  78  80  81  84  87  88  91  95  99 102 106 110 111 114 115
+ 116 119 121 123 125 126 128 132 133 134 135 137 143 144 149 150 151 152
+ 155 156 161 162 163 165 166 168 169 170 171 173 174 175 176 178 181 182
+ 184 188 189 191 198 199 200 201 202 203 207 209 211 212 214 215 217 220
+ 224 226 227 231 232 234 239 241 243 244 246 250 251 252 255 256 257 258
+ 259 260 262 268 274 275 277 278 279 280 284 285 288 289 290 292 294 295
+ 301 302 303 305 310 311 313 318 319 323 324 326 329 330 331 332 333 336
+ 337 344 347 348 353 357 359 362 363 364 365 366 368 371 372 373 377 378
+ 380 381 383 384 385 386 387 388 389 390 391 393 394 401 408 409 412 413
+ 415 417 420 421 423 424 425 426 427 434 435 436 438 439 440 443 445 447
+ 448 452 457 458 459 460 462 464 466 468 469 470 471 472 473 474 475 477
+ 478 480 482 483 484 485 488 494 495 496 499 500 501 504 509 510 513 514
+ 515 516 517 518 520 521 522 523 524 525 526 527 531 533 535 536 538 539
+ 540 541 546 548 549 550 551 553 554 556 558 560 568 569 571 572 573 575
+ 576 578 581 587 588 591 592 594 597 598 601 606 607 608 609 611 612 614
+ 619 621 624 625 626 627 628 632 633 634 635 637 639 640 642 644 645 648
+ 649 652 653 659 660 661 663 664 665 670 673 674 675 676 680 682 683 684
+ 689 690 691 692 694 697 698 700 703 707 708 710 712 713 714 716 717 718
+ 720 722 723 725 729 731 732 734 737 740 741 747 749 750 752]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E8" t="n">
-        <v>17.9620099067688</v>
+        <v>17.78508758544922</v>
       </c>
     </row>
     <row r="9">
@@ -902,61 +904,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1
- 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0
- 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0
- 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1
- 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 0 1 0 0
- 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1
- 0 0 1 1 1 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1
- 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1
- 0 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0
- 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 1 1
- 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 1
- 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1
- 0 1 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0
- 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0
- 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 1 0
- 1 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 1 1 1
- 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 1 0 0
- 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1
- 1 1 1 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 1 1 0
- 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0
- 1 0 1 0 0 1 1 1 0 1 0 0 1]</t>
+          <t>[1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1
+ 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0
+ 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 0 1
+ 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1
+ 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1
+ 1 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1
+ 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1
+ 1 1 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 1 1
+ 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0
+ 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1
+ 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1
+ 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0
+ 0 1 0 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1 1
+ 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1
+ 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0
+ 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0
+ 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 1 1 0
+ 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 0
+ 1 0 1 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 0
+ 1 0 0 1 1 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0 1
+ 0 0 0 1 0 0 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   5   6   8   9  11  12  13  15  16  17  18  19  22  24
-  26  27  28  29  31  33  34  35  36  37  38  39  42  43  44  47  48  51
-  54  55  56  57  58  61  62  64  65  67  70  72  74  75  78  79  80  81
-  82  83  84  86  89  95  98  99 102 104 105 108 111 115 120 121 124 127
- 128 129 131 132 135 137 138 139 140 141 142 145 147 150 151 152 153 154
- 155 157 158 160 161 165 167 168 169 170 171 174 175 176 179 180 182 187
- 189 190 191 194 198 201 203 204 205 206 207 208 209 211 214 215 219 221
- 224 225 226 227 230 231 232 233 237 238 240 241 245 248 250 257 258 261
- 262 263 264 265 266 269 270 271 272 274 275 277 278 280 281 282 283 286
- 287 289 293 294 295 297 298 302 304 305 306 307 310 311 312 313 314 315
- 317 321 323 325 326 328 331 335 336 337 338 339 340 343 345 347 349 350
- 353 355 357 358 362 364 365 367 368 369 370 374 381 383 384 386 387 389
- 391 393 394 396 402 403 404 405 406 409 410 412 413 414 418 419 420 422
- 423 425 426 428 430 432 433 435 436 437 438 439 440 441 442 443 445 446
- 450 451 452 454 455 462 466 468 469 470 473 475 476 477 478 479 482 485
- 486 488 492 493 495 498 499 501 506 509 511 516 518 521 524 525 526 532
- 535 536 538 539 542 543 545 547 550 551 553 555 556 558 560 565 567 569
- 571 573 574 575 576 581 582 584 586 588 589 590 591 592 594 597 598 600
- 603 605 608 612 613 616 617 618 620 621 624 625 626 629 631 632 633 634
- 638 642 643 645 646 649 650 652 654 658 659 660 661 663 665 666 667 668
- 671 672 673 675 678 681 682 683 686 687 691 693 695 696 697 698 699 700
- 701 703 705 708 709 712 714 715 716 717 718 719 720 726 728 729 730 731
- 732 737 738 740 742 745 746 747 749 752]</t>
+          <t>[  0   3   4   5   7   9  12  13  20  22  24  26  31  32  35  36  37  38
+  39  41  42  43  44  45  46  47  50  51  53  57  58  61  63  65  66  68
+  71  74  77  80  83  91  94  95  96  98 100 102 105 107 110 111 113 114
+ 117 118 119 121 126 131 132 134 135 144 145 146 147 148 149 150 151 152
+ 153 155 157 158 159 160 162 163 167 168 172 174 176 182 184 185 189 191
+ 192 196 197 198 199 204 205 207 208 210 211 212 217 219 221 222 225 231
+ 232 235 237 240 241 243 244 247 249 254 255 258 259 260 261 263 264 266
+ 267 268 272 273 278 280 281 282 286 287 288 293 294 295 296 298 301 303
+ 307 310 312 314 315 316 318 320 321 322 323 324 325 329 333 335 338 339
+ 341 343 347 348 349 350 352 354 356 359 360 362 364 366 367 369 370 372
+ 375 377 378 379 382 384 385 386 387 388 390 391 392 393 398 399 400 403
+ 405 406 407 408 410 411 412 413 415 417 418 420 423 427 428 429 431 432
+ 434 436 437 438 441 445 447 448 450 451 452 455 456 459 460 461 462 463
+ 465 466 470 471 475 478 479 480 481 482 483 489 490 492 494 499 504 505
+ 506 508 511 512 513 517 518 519 520 527 529 530 532 533 538 540 541 544
+ 545 546 551 552 553 555 556 558 564 569 570 571 572 574 576 578 579 580
+ 581 583 584 585 588 589 590 592 593 595 598 600 602 603 604 605 607 612
+ 615 617 618 620 621 625 626 627 631 633 634 635 636 637 639 641 642 644
+ 645 647 649 653 654 655 657 659 662 666 668 670 671 673 675 676 677 679
+ 684 685 687 688 689 690 691 694 695 696 697 699 700 701 703 706 707 708
+ 709 711 712 713 714 717 724 725 727 729 732 733 734 737 739 743 747 748
+ 751]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E9" t="n">
-        <v>18.91882991790771</v>
+        <v>18.58447647094727</v>
       </c>
     </row>
     <row r="10">
@@ -965,59 +966,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 0
- 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 1 1 0 1 0
- 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0
- 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1 1 1
- 0 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 0 1 1 1 0 1 0 1 1 1
- 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 1 1
- 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0
- 1 1 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0
- 0 0 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0
- 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0
- 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0
- 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 1
- 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1
- 0 1 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1
- 0 0 0 0 1 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1
- 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1
- 1 1 1 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 0 0
- 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 1 1
- 0 0 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 0
- 1 0 1 1 1 0 0 1 0 1 1 1 0]</t>
+          <t>[1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0
+ 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1
+ 0 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 1
+ 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1 1 0 1 1
+ 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 1 0 0 1
+ 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0
+ 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0
+ 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1
+ 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 1 1 0 0
+ 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0
+ 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 0
+ 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0
+ 1 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ 1 0 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1
+ 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1
+ 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1
+ 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1
+ 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 1 1 1
+ 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1
+ 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0
+ 0 0 1 0 1 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  2   3   7   8  10  11  12  14  15  18  19  21  23  24  25  26  27  28
-  29  32  34  38  43  45  47  48  49  52  59  60  61  62  65  67  69  70
-  72  78  80  82  83  84  90  94  96  98  99 101 104 107 108 111 118 121
- 122 123 131 134 136 138 139 140 141 145 146 147 149 150 152 154 155 157
- 158 159 160 161 162 163 164 165 167 168 169 173 174 176 177 178 180 182
- 183 184 190 192 193 194 196 198 200 201 203 204 206 209 210 212 214 215
- 217 218 220 221 224 225 229 239 241 242 243 244 245 246 250 251 253 255
- 257 259 260 261 262 263 264 265 266 268 274 277 278 281 285 288 290 291
- 293 298 300 301 304 306 307 308 309 310 312 318 325 336 337 341 343 344
- 346 352 353 355 356 358 360 363 364 365 366 370 372 376 377 379 380 383
- 386 392 401 402 407 409 411 414 418 423 424 425 427 428 430 431 432 433
- 434 436 437 438 439 440 441 442 444 446 448 452 455 457 462 464 465 466
- 468 469 470 474 477 478 479 480 482 484 488 491 493 495 499 500 502 503
- 505 508 510 511 512 516 517 519 520 521 522 525 526 528 529 530 531 532
- 533 534 535 536 537 542 545 548 552 553 554 559 560 562 563 564 567 568
- 569 575 578 579 580 584 585 586 589 591 592 593 594 596 601 604 606 607
- 608 609 610 613 615 616 619 622 624 625 628 629 630 631 632 634 639 641
- 642 643 645 649 650 651 652 653 655 656 659 661 663 666 667 668 670 672
- 674 677 679 681 683 684 687 690 691 692 693 696 698 700 701 702 706 707
- 709 710 713 714 715 716 719 720 722 723 725 726 730 731 733 735 736 737
- 738 740 742 743 744 747 749 750 751]</t>
+          <t>[  0   2   4   5   6   8   9  11  12  13  14  15  17  19  25  26  27  28
+  29  32  34  35  47  48  53  54  59  61  63  67  71  73  76  77  78  80
+  82  83  86  87  88  90  91  96  97  99 100 105 108 109 110 114 115 118
+ 119 121 123 126 127 128 130 131 135 138 141 142 143 144 146 147 151 152
+ 154 155 156 158 159 162 165 169 170 172 175 177 179 181 184 186 189 191
+ 193 197 200 201 204 206 207 208 209 211 212 214 215 216 218 223 226 235
+ 236 237 238 241 243 244 252 254 255 256 260 265 267 268 272 274 275 276
+ 280 281 282 283 284 289 290 292 293 295 296 298 300 302 303 304 306 308
+ 309 310 313 314 315 318 320 321 322 324 327 328 329 330 333 337 340 341
+ 343 344 346 348 350 351 353 354 355 356 358 360 361 362 364 366 367 368
+ 370 372 373 374 375 376 377 379 380 381 382 383 384 390 391 392 393 394
+ 400 401 402 403 405 407 411 413 414 417 418 419 421 425 427 428 430 432
+ 435 437 442 444 447 449 451 452 453 456 457 458 459 460 461 462 465 466
+ 468 474 481 483 484 485 487 492 494 495 501 503 506 510 511 517 519 520
+ 525 526 527 533 534 536 538 539 540 543 545 548 551 554 558 559 562 567
+ 568 571 579 582 586 587 591 593 595 598 599 602 603 604 609 610 611 612
+ 617 618 622 623 628 629 630 633 635 637 638 639 643 646 647 648 650 651
+ 652 653 656 658 659 663 664 665 666 667 669 670 672 673 674 675 676 677
+ 678 679 682 684 690 691 693 694 695 696 699 700 701 702 703 707 709 710
+ 712 714 715 716 719 720 721 722 723 724 728 729 734 742 744 745 750 752]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E10" t="n">
-        <v>17.45908832550049</v>
+        <v>18.56854462623596</v>
       </c>
     </row>
     <row r="11">
@@ -1026,60 +1026,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0
- 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1
- 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0
- 1 1 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 0
- 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1
- 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0
- 1 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 1 1 0
- 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 1 1
- 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 0
- 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1
- 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0
- 1 1 0 0 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1
- 1 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 0
- 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 1
- 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1
- 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1
- 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0
- 0 0 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1
- 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1
- 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1
- 0 0 0 0 0 1 1 0 1 0 0 1 1]</t>
+          <t>[1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 1
+ 1 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1
+ 0 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0
+ 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1
+ 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0
+ 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1
+ 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 0 1
+ 1 0 0 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1
+ 0 1 1 0 0 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1
+ 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 0 0 0 0
+ 1 0 1 1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1
+ 1 0 1 0 1 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 0
+ 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0
+ 1 0 1 1 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0
+ 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0
+ 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0
+ 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1
+ 0 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 1 1 1 0
+ 1 1 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1
+ 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0
+ 0 0 0 1 1 1 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   7   8  11  12  17  18  19  20  21  26  28  30  31
-  32  33  40  41  42  44  46  49  51  52  53  56  60  61  64  68  69  73
-  74  75  76  77  80  82  83  84  86  87  88  89  90  92  93  97  98 100
- 102 107 111 112 113 115 116 117 118 121 124 126 127 128 131 132 133 134
- 137 138 140 143 144 146 150 152 153 155 156 157 161 163 164 166 169 171
- 173 174 175 177 179 181 184 187 191 194 195 196 198 200 202 204 206 211
- 216 217 218 222 223 224 226 228 235 236 238 241 243 245 247 249 250 251
- 252 253 254 256 257 261 262 266 268 269 271 272 274 276 280 282 283 284
- 285 286 288 294 295 296 299 301 302 303 310 311 312 316 318 320 321 323
- 324 325 327 329 331 333 334 336 338 339 340 341 342 344 345 346 347 350
- 351 352 359 362 366 368 369 370 376 378 379 380 381 383 385 388 395 399
- 400 401 402 403 407 408 411 412 413 414 415 416 418 419 423 424 426 427
- 428 429 431 433 438 439 441 443 444 445 446 447 453 454 455 456 460 463
- 464 465 466 467 468 471 472 473 474 475 478 479 484 486 493 494 495 496
- 499 500 505 507 510 511 513 514 517 518 519 521 523 525 529 530 531 535
- 539 540 541 542 543 544 546 553 554 556 558 560 563 564 570 571 572 575
- 577 581 587 591 592 594 595 596 597 598 599 601 605 606 607 609 610 611
- 613 615 616 617 619 620 621 626 631 632 634 635 637 638 639 640 641 644
- 646 647 648 650 653 654 656 657 658 659 660 664 665 669 670 671 672 676
- 678 680 683 686 687 690 691 692 694 695 700 701 702 704 705 706 707 710
- 711 712 714 716 717 719 720 721 726 729 730 731 735 737 739 745 746 748
- 751 752]</t>
+          <t>[  0   1   2   5   6   8   9  11  14  15  16  17  18  19  20  21  23  24
+  25  26  28  29  30  31  33  34  35  36  37  39  41  42  45  47  49  54
+  55  56  57  59  61  62  66  68  69  71  73  75  76  78  79  80  84  87
+  90  91  95  97 103 105 106 108 109 112 118 122 123 124 125 126 131 132
+ 135 139 145 147 152 153 157 159 160 161 163 164 168 170 171 172 173 174
+ 175 176 178 180 181 183 187 188 189 194 195 196 200 202 203 205 206 207
+ 212 213 215 217 218 221 223 224 225 226 228 229 231 232 233 234 237 239
+ 240 241 242 243 245 247 248 249 250 251 252 253 255 258 259 263 267 268
+ 269 270 271 273 274 275 278 279 280 282 283 292 294 295 297 298 303 304
+ 306 308 309 310 311 312 314 316 317 321 323 325 327 328 329 332 333 334
+ 338 339 340 341 343 345 346 348 354 355 358 360 361 362 363 364 365 370
+ 372 373 374 375 376 378 380 382 385 387 389 390 391 392 394 396 397 399
+ 400 402 403 405 406 407 409 411 412 413 415 416 417 419 425 426 428 430
+ 431 432 434 435 436 437 438 439 440 444 445 448 449 450 453 454 456 458
+ 459 462 463 464 469 470 471 476 477 478 479 481 483 484 486 487 490 491
+ 492 494 497 498 499 501 502 505 506 511 512 514 516 519 521 522 525 527
+ 529 530 531 532 533 534 535 536 538 539 540 542 543 545 546 549 553 557
+ 559 561 562 564 568 570 571 572 573 575 580 582 587 588 590 592 597 601
+ 605 607 612 613 614 616 617 618 620 621 622 624 625 628 630 633 634 635
+ 637 639 643 645 648 652 655 657 658 660 661 662 663 664 666 667 669 673
+ 674 675 677 678 679 685 687 692 696 697 698 702 704 705 706 709 712 713
+ 715 716 718 719 722 723 724 725 728 729 731 733 736 743 744 745 746 748]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E11" t="n">
-        <v>18.80660605430603</v>
+        <v>19.68717312812805</v>
       </c>
     </row>
     <row r="12">
@@ -1088,62 +1088,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0
- 0 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1
- 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 0 1
- 0 1 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1
- 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 1
- 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1
- 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1
- 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 0
- 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1
- 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 1 1 1
- 0 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0
- 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 1 1 0
- 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1
- 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0
- 1 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1
- 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1
- 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0
- 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 0
- 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1
- 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 0 1
- 1 0 0 1 1 0 1 0 1 1 1 1 1]</t>
+          <t>[1 0 1 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1
+ 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1
+ 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 0 1
+ 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0
+ 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0
+ 0 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0
+ 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 1 0
+ 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 0 1 1 0 0 1 1 0
+ 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1
+ 1 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0
+ 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 0 1
+ 1 0 1 0 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0
+ 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0
+ 1 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1
+ 1 1 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 1 1 1 1 0
+ 0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1
+ 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0
+ 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1
+ 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1
+ 0 1 1 1 1 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 1 1
+ 1 1 1 1 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[  2   4   5   6   7   8   9  10  11  12  13  14  15  17  19  20  21  23
-  26  27  29  32  33  38  40  41  44  45  47  48  50  52  57  58  59  61
-  62  63  66  67  70  71  72  73  74  76  79  83  85  88  91  93  95  96
-  97  99 101 102 105 106 107 108 110 112 114 116 117 118 119 121 122 124
- 126 128 132 133 137 138 140 141 142 143 144 145 146 147 148 151 154 155
- 156 158 161 166 168 169 170 171 172 173 175 176 177 181 182 183 184 185
- 186 192 193 195 196 197 198 199 201 202 203 206 207 209 214 215 218 220
- 221 223 227 228 229 230 232 233 235 238 239 241 242 243 245 249 257 258
- 259 260 263 265 266 267 269 270 272 274 275 276 277 278 280 281 283 285
- 286 287 290 292 293 298 299 300 305 306 308 309 311 312 315 316 319 320
- 322 325 326 332 333 336 337 338 339 341 342 343 348 350 351 353 354 356
- 358 359 361 363 365 366 367 368 369 371 373 374 376 377 378 379 380 381
- 383 384 386 387 388 391 392 393 395 398 400 401 402 403 404 410 413 414
- 416 417 419 420 421 422 423 424 425 426 428 429 431 434 438 439 440 441
- 442 445 449 450 451 456 459 461 462 463 464 466 467 468 469 470 472 473
- 474 478 479 480 483 484 485 486 488 491 492 493 496 497 499 501 502 506
- 507 508 509 510 513 514 515 516 518 521 522 525 526 527 528 533 535 536
- 537 540 541 543 548 549 550 551 554 556 558 559 561 562 563 564 566 569
- 571 573 575 580 582 585 588 589 590 591 592 596 597 599 601 607 609 610
- 611 612 614 615 616 618 621 623 624 626 633 636 637 638 641 642 644 645
- 646 647 649 652 654 656 657 658 659 660 661 666 667 669 670 671 672 679
- 680 681 682 684 685 687 688 692 693 694 696 697 699 701 702 703 706 709
- 711 713 715 717 718 719 720 721 722 724 726 727 732 735 736 737 739 740
- 743 744 746 748 749 750 751 752]</t>
+          <t>[  0   2   4   5   6  12  13  14  15  16  22  25  26  27  31  32  33  34
+  35  36  37  38  39  43  46  50  51  56  58  60  63  64  66  68  69  70
+  72  73  75  76  77  79  80  82  87  88  93  95  96  97  98  99 100 103
+ 105 107 110 111 112 113 116 125 126 129 130 131 132 136 138 141 143 144
+ 145 149 150 153 154 156 158 160 161 162 165 166 167 168 169 171 177 181
+ 183 186 187 189 190 192 193 195 196 197 200 204 205 207 208 209 210 213
+ 224 229 230 232 233 235 236 237 238 240 243 244 245 247 249 250 255 257
+ 260 262 264 268 273 275 276 277 278 280 282 283 285 287 289 290 293 294
+ 297 298 300 302 303 305 307 308 312 314 315 317 318 319 321 322 324 325
+ 326 327 329 330 331 332 333 334 335 337 338 339 340 342 343 344 345 348
+ 349 352 353 354 356 357 358 359 362 363 365 367 368 371 372 376 378 380
+ 383 386 388 391 392 393 399 400 402 403 404 406 407 409 412 413 417 418
+ 420 421 422 423 425 428 429 431 432 433 435 436 437 444 445 447 448 449
+ 450 451 454 455 459 460 463 464 465 471 474 475 477 478 479 481 482 484
+ 485 489 490 491 495 502 504 508 511 513 514 515 516 517 518 519 520 521
+ 522 525 527 530 533 536 538 540 543 544 546 547 550 551 552 553 556 557
+ 558 560 562 563 566 568 569 574 576 577 578 579 580 581 582 586 587 588
+ 590 591 592 595 597 598 599 600 601 604 607 611 614 616 617 618 622 623
+ 625 631 636 638 640 641 644 645 647 652 653 655 665 666 668 669 672 673
+ 675 676 677 678 679 680 681 682 686 689 693 694 696 699 702 704 705 706
+ 707 709 710 712 716 717 718 720 722 726 728 730 732 733 734 737 738 739
+ 740 741 742 743 745 750 752]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E12" t="n">
-        <v>19.86788296699524</v>
+        <v>19.12392497062683</v>
       </c>
     </row>
     <row r="13">
@@ -1152,62 +1150,59 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1
- 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1
- 0 0 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1
- 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0
- 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0
- 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0
- 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0
- 0 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 0 1 1 1 0 0
- 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0
- 1 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1
- 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1
- 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0
- 1 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1
- 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 1 0 0
- 0 0 0 1 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0
- 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1
- 0 0 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0
- 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1
- 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0
- 1 1 0 1 1 0 0 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 0
- 1 0 1 1 0 1 0 0 1 0 1 1 0]</t>
+          <t>[0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ 0 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0
+ 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0
+ 1 0 1 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1
+ 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1
+ 1 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1
+ 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 1 1
+ 0 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1
+ 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1
+ 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 1 1 0
+ 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1
+ 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1
+ 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 1 0 0 1 1 1 1
+ 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1
+ 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 0
+ 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1
+ 0 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 0 0
+ 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0
+ 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 0
+ 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0
+ 1 0 0 0 1 1 1 0 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[  2   3   5   6   9  10  11  12  14  16  17  19  21  22  24  26  27  29
-  30  33  36  37  38  39  40  41  42  43  44  46  47  48  49  50  51  55
-  56  57  58  59  60  63  64  65  66  68  71  72  73  76  77  80  81  83
-  84  85  87  88  89  90  91  92  93  94  95  96  97 104 107 110 111 113
- 117 118 119 120 123 126 131 132 134 138 140 142 143 144 145 148 149 150
- 151 153 154 157 159 160 165 166 173 175 176 177 179 181 182 183 185 187
- 188 190 192 193 194 198 199 200 201 202 206 208 209 210 211 212 215 220
- 225 226 229 230 232 234 237 239 241 242 247 248 251 252 253 254 257 260
- 261 262 263 264 266 268 269 270 273 275 276 277 278 280 283 284 285 288
- 289 291 292 293 296 297 298 299 300 301 302 303 304 305 306 307 308 310
- 311 312 314 316 317 318 320 323 324 325 326 328 329 331 333 334 335 336
- 337 342 343 345 346 347 348 349 354 355 357 358 359 360 362 363 364 367
- 369 373 374 376 378 379 382 385 386 388 389 390 391 392 393 395 397 402
- 403 404 405 406 407 409 410 411 412 413 414 415 419 420 421 423 424 425
- 426 431 434 435 439 441 444 447 448 450 451 452 453 454 455 457 458 459
- 462 463 465 468 469 472 473 476 477 479 480 482 483 484 485 486 488 491
- 493 494 495 496 498 502 503 507 509 511 512 514 515 521 523 525 527 528
- 529 531 532 534 536 537 538 539 540 541 543 547 551 552 553 556 557 559
- 561 562 564 565 566 568 569 570 572 573 576 577 580 583 584 589 591 598
- 600 601 603 604 605 606 607 608 609 611 613 614 615 618 621 622 624 625
- 631 632 635 637 642 646 647 649 650 653 654 656 657 664 665 668 669 671
- 675 678 681 682 683 684 685 687 688 691 692 693 695 697 698 699 700 701
- 703 704 706 707 710 711 715 716 718 719 721 722 723 724 726 728 729 731
- 732 733 734 735 736 738 740 742 743 745 748 750 751]</t>
+          <t>[  6   7   8  12  13  14  15  16  19  21  22  23  33  38  40  41  42  46
+  50  51  52  53  57  59  61  62  63  64  65  68  70  72  75  76  77  80
+  83  84  90  92  93  95 101 105 107 111 113 116 117 119 120 121 123 125
+ 127 128 132 133 134 136 137 139 140 141 142 143 146 147 149 150 154 157
+ 159 168 169 170 175 178 182 184 185 186 189 190 193 194 195 197 202 205
+ 206 209 214 215 216 217 220 221 225 229 231 232 233 236 239 240 241 244
+ 245 248 253 254 255 257 258 260 261 263 264 266 267 269 271 272 275 277
+ 279 280 281 282 284 290 291 293 295 296 300 302 303 305 306 310 312 314
+ 321 323 326 328 330 332 333 334 335 336 340 341 342 344 345 346 348 349
+ 350 352 355 357 358 359 360 363 366 367 368 371 377 379 381 382 383 384
+ 386 387 389 390 393 396 398 399 400 403 406 407 408 411 412 413 415 416
+ 417 418 420 421 422 423 425 427 429 430 437 439 440 442 443 444 448 449
+ 451 452 453 454 456 457 458 460 464 465 466 467 469 471 474 477 478 479
+ 480 481 482 488 489 490 491 495 496 497 498 501 502 503 504 510 514 515
+ 517 519 522 524 525 530 532 535 536 541 543 544 546 548 551 552 553 555
+ 556 557 558 559 560 561 562 565 567 568 570 573 575 577 578 579 580 581
+ 582 583 587 588 589 591 594 597 598 601 602 603 604 605 611 612 614 617
+ 618 622 624 625 626 630 634 635 637 638 642 643 644 647 649 650 652 656
+ 658 659 660 662 667 669 670 671 673 674 677 679 680 682 687 690 691 693
+ 694 695 696 698 701 707 711 713 714 716 717 719 722 723 725 727 728 730
+ 731 735 736 737 740 744 745 746 749 750 751]</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E13" t="n">
-        <v>20.23298954963684</v>
+        <v>18.86070585250854</v>
       </c>
     </row>
     <row r="14">
@@ -1216,64 +1211,59 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 1
- 1 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1
- 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1
- 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1
- 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0
- 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1
- 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0
- 0 1 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 1 1 0 1 0 0 0 0 1 1 1
- 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 0
- 0 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 1 1 1 1 0 0 1
- 0 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0
- 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1
- 0 0 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1
- 1 1 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1
- 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1
- 1 1 0 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1
- 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0
- 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 1 0 1 0 1
- 1 0 1 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 1
- 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 1 1
- 1 0 0 0 1 1 0 0 1 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1
+ 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1
+ 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 1 1 0 0
+ 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1
+ 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ 1 0 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 1
+ 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 0 0 1
+ 0 1 0 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 1
+ 0 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 1
+ 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0
+ 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0
+ 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0
+ 0 0 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 1
+ 1 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0
+ 1 0 1 1 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1
+ 0 0 1 1 0 1 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 1 1 1
+ 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1
+ 0 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0
+ 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0
+ 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0
+ 1 1 1 0 1 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   6   7   8   9  11  12  14  15  16  17  20  21  22
-  23  24  25  26  28  30  31  36  37  38  39  40  41  42  45  46  49  52
-  53  54  55  56  57  58  59  60  62  63  64  65  66  68  73  75  76  79
-  80  81  84  85  91  92  93  95  96  97  98  99 100 101 102 106 108 110
- 111 113 115 117 118 119 120 122 123 124 126 127 128 129 131 133 134 136
- 138 139 140 142 144 147 148 150 151 153 154 155 157 158 160 161 162 164
- 166 167 168 170 171 172 173 175 176 178 179 180 181 183 185 187 188 189
- 191 194 196 197 199 200 201 202 204 205 206 209 210 211 212 213 214 215
- 216 217 218 220 221 223 224 225 227 228 229 230 231 232 233 235 236 237
- 238 239 240 241 243 244 245 251 252 255 260 261 262 263 267 268 269 271
- 273 279 280 281 283 284 285 286 288 293 294 295 296 298 300 301 304 305
- 306 308 310 315 316 317 319 320 321 322 323 325 327 328 329 330 331 334
- 336 337 338 341 343 344 345 346 349 353 355 356 357 358 360 363 364 365
- 366 369 372 373 375 376 377 378 379 381 382 384 387 389 394 398 399 400
- 401 402 407 408 409 410 412 414 416 417 419 420 421 422 423 424 425 426
- 429 430 431 432 433 434 435 437 438 439 441 443 446 447 448 449 452 453
- 457 458 461 463 465 466 467 468 469 470 471 473 474 475 478 480 481 482
- 483 484 485 487 489 491 494 498 499 500 504 505 506 507 508 509 510 511
- 512 513 514 517 519 521 524 528 530 535 538 540 541 544 545 546 547 548
- 549 552 554 555 556 558 560 561 562 564 566 568 573 574 575 578 579 580
- 582 585 587 588 590 591 592 593 594 595 596 601 602 603 604 606 608 609
- 611 612 616 617 620 621 622 623 625 627 629 630 631 632 635 637 638 641
- 642 643 645 646 648 653 654 655 656 659 660 661 663 665 666 668 669 670
- 672 673 674 676 682 685 687 688 690 692 694 695 696 698 699 700 702 703
- 704 705 707 710 712 714 715 716 717 718 720 721 722 723 724 726 728 729
- 730 731 735 736 737 738 739 740 744 745 748 749 751 752]</t>
+          <t>[  0   1   2   3   4   5   6   7  13  14  15  16  17  18  20  21  22  24
+  25  26  28  29  30  32  33  36  37  38  39  40  41  42  43  44  48  49
+  50  52  53  55  56  57  59  60  71  73  74  75  76  83  84  85  86  87
+  88  95  96  97 100 102 103 104 107 108 112 113 114 115 118 119 121 123
+ 124 131 132 133 134 135 142 147 150 151 153 157 165 166 168 169 170 180
+ 184 185 187 188 189 190 194 195 196 197 198 199 200 202 203 204 205 207
+ 210 213 214 215 216 219 220 221 222 223 227 229 231 237 238 241 242 246
+ 247 248 249 251 253 254 258 260 262 263 265 267 268 272 273 276 277 280
+ 282 283 284 286 287 288 289 293 295 300 302 303 304 305 306 307 308 309
+ 313 315 317 320 321 322 323 324 326 328 329 330 331 332 333 336 339 341
+ 343 346 349 352 356 358 359 360 363 364 366 371 372 373 374 377 378 381
+ 383 386 387 389 390 391 395 396 399 400 401 402 405 407 412 417 418 419
+ 425 427 428 432 433 434 437 438 442 446 447 448 449 450 452 456 461 466
+ 468 471 473 474 476 477 478 480 481 484 485 486 487 490 493 494 495 496
+ 497 499 500 503 504 506 507 511 513 518 520 521 522 523 525 526 528 529
+ 531 536 538 543 547 548 549 550 551 554 557 558 560 561 562 563 564 569
+ 571 572 573 576 577 580 582 583 584 589 590 591 595 597 598 599 605 607
+ 611 612 613 616 617 620 623 628 630 634 636 637 638 639 641 643 648 651
+ 652 653 654 656 657 662 670 675 677 679 680 681 686 689 690 691 693 694
+ 696 697 698 699 700 703 705 707 709 710 711 712 713 714 716 722 724 726
+ 727 728 729 730 731 738 740 741 742 744 746 748 749 750 751 752]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E14" t="n">
-        <v>22.23123049736023</v>
+        <v>18.28212141990662</v>
       </c>
     </row>
   </sheetData>
